--- a/datasets/painting_samples.xlsx
+++ b/datasets/painting_samples.xlsx
@@ -812,97 +812,97 @@
     <t>0MFi1UL</t>
   </si>
   <si>
-    <t>/img/4cKSZq8.jpg</t>
-  </si>
-  <si>
-    <t>/img/mTaaKjq.jpg</t>
-  </si>
-  <si>
-    <t>/img/oiqI5Z7.jpg</t>
-  </si>
-  <si>
-    <t>/img/q018wjy.jpg</t>
-  </si>
-  <si>
-    <t>/img/23wcWo0.jpg</t>
-  </si>
-  <si>
-    <t>/img/FQelSi1.jpg</t>
-  </si>
-  <si>
-    <t>/img/nDiGyHR.jpg</t>
-  </si>
-  <si>
-    <t>/img/21FPxH7.jpg</t>
-  </si>
-  <si>
-    <t>/img/Qxr2WrA.jpg</t>
-  </si>
-  <si>
-    <t>/img/pnxEHbN.jpg</t>
-  </si>
-  <si>
-    <t>/img/XIgdIzn.jpg</t>
-  </si>
-  <si>
-    <t>/img/1szS6GU.jpg</t>
-  </si>
-  <si>
-    <t>/img/yzRB2xc.jpg</t>
-  </si>
-  <si>
-    <t>/img/AqUZRL3.jpg</t>
-  </si>
-  <si>
-    <t>/img/m2V5MFX.jpg</t>
-  </si>
-  <si>
-    <t>/img/SKDdlZA.jpg</t>
-  </si>
-  <si>
-    <t>/img/gDopdH9.jpg</t>
-  </si>
-  <si>
-    <t>/img/S28rZEw.jpg</t>
-  </si>
-  <si>
-    <t>/img/Ysmexp2.jpg</t>
-  </si>
-  <si>
-    <t>/img/wn2bl4S.jpg</t>
-  </si>
-  <si>
-    <t>/img/Fg6WeLk.jpg</t>
-  </si>
-  <si>
-    <t>/img/Y5mubKg.jpg</t>
-  </si>
-  <si>
-    <t>/img/zCkzENg.jpg</t>
-  </si>
-  <si>
-    <t>/img/OMUfoH2.jpg</t>
-  </si>
-  <si>
-    <t>/img/ysTDXLl.jpg</t>
-  </si>
-  <si>
-    <t>/img/q8vlOZY.jpg</t>
-  </si>
-  <si>
-    <t>/img/8kYkD3n.jpg</t>
-  </si>
-  <si>
-    <t>/img/aHcGbx3.jpg</t>
-  </si>
-  <si>
-    <t>/img/t514u2f.jpg</t>
-  </si>
-  <si>
-    <t>/img/03LA5y1.jpg</t>
-  </si>
-  <si>
-    <t>/img/0MFi1UL.jpg</t>
+    <t>img/4cKSZq8.jpg</t>
+  </si>
+  <si>
+    <t>img/mTaaKjq.jpg</t>
+  </si>
+  <si>
+    <t>img/oiqI5Z7.jpg</t>
+  </si>
+  <si>
+    <t>img/q018wjy.jpg</t>
+  </si>
+  <si>
+    <t>img/23wcWo0.jpg</t>
+  </si>
+  <si>
+    <t>img/FQelSi1.jpg</t>
+  </si>
+  <si>
+    <t>img/nDiGyHR.jpg</t>
+  </si>
+  <si>
+    <t>img/21FPxH7.jpg</t>
+  </si>
+  <si>
+    <t>img/Qxr2WrA.jpg</t>
+  </si>
+  <si>
+    <t>img/pnxEHbN.jpg</t>
+  </si>
+  <si>
+    <t>img/XIgdIzn.jpg</t>
+  </si>
+  <si>
+    <t>img/1szS6GU.jpg</t>
+  </si>
+  <si>
+    <t>img/yzRB2xc.jpg</t>
+  </si>
+  <si>
+    <t>img/AqUZRL3.jpg</t>
+  </si>
+  <si>
+    <t>img/m2V5MFX.jpg</t>
+  </si>
+  <si>
+    <t>img/SKDdlZA.jpg</t>
+  </si>
+  <si>
+    <t>img/gDopdH9.jpg</t>
+  </si>
+  <si>
+    <t>img/S28rZEw.jpg</t>
+  </si>
+  <si>
+    <t>img/Ysmexp2.jpg</t>
+  </si>
+  <si>
+    <t>img/wn2bl4S.jpg</t>
+  </si>
+  <si>
+    <t>img/Fg6WeLk.jpg</t>
+  </si>
+  <si>
+    <t>img/Y5mubKg.jpg</t>
+  </si>
+  <si>
+    <t>img/zCkzENg.jpg</t>
+  </si>
+  <si>
+    <t>img/OMUfoH2.jpg</t>
+  </si>
+  <si>
+    <t>img/ysTDXLl.jpg</t>
+  </si>
+  <si>
+    <t>img/q8vlOZY.jpg</t>
+  </si>
+  <si>
+    <t>img/8kYkD3n.jpg</t>
+  </si>
+  <si>
+    <t>img/aHcGbx3.jpg</t>
+  </si>
+  <si>
+    <t>img/t514u2f.jpg</t>
+  </si>
+  <si>
+    <t>img/03LA5y1.jpg</t>
+  </si>
+  <si>
+    <t>img/0MFi1UL.jpg</t>
   </si>
 </sst>
 </file>
